--- a/files/inv 2/wordvariables.xlsx
+++ b/files/inv 2/wordvariables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htv\source\repos\peppolgenerator\files\inv 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAFBE60-6F38-4581-8C37-65BA57A97C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF1B93-9B1E-4B66-AD65-04CA22DDBA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-8880" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-67320" yWindow="-9900" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="187">
   <si>
     <t>KEY</t>
   </si>
@@ -60,9 +60,6 @@
     <t>DELIVERYNOTENO</t>
   </si>
   <si>
-    <t>Følgeseddel: 1080</t>
-  </si>
-  <si>
     <t>YOURORDERNOLABEL</t>
   </si>
   <si>
@@ -547,13 +544,55 @@
   </si>
   <si>
     <t>Navn</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126817</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126818</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126819</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126820</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126821</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126822</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126823</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126824</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126825</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126826</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126827</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126828</t>
+  </si>
+  <si>
+    <t>DELIVERY NOTE: DN22-126829</t>
+  </si>
+  <si>
+    <t>FØLGESEDDEL: DN22-126821</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -572,6 +611,12 @@
       <color rgb="FF262626"/>
       <name val="Open Sans SemiBold"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -883,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,49 +943,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>36</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>37</v>
-      </c>
-      <c r="P1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -948,49 +993,49 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>178</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>179</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="L2" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="M2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="N2" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="P2" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1048,49 +1093,49 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>67</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>68</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>69</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>72</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>73</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>74</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>75</v>
-      </c>
-      <c r="P4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1098,49 +1143,49 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1148,49 +1193,49 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
         <v>77</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>79</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
         <v>80</v>
       </c>
-      <c r="F6" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>81</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>82</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>84</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="s">
         <v>85</v>
       </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>86</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>87</v>
       </c>
-      <c r="O6" t="s">
-        <v>88</v>
-      </c>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1198,49 +1243,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>91</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>92</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>94</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>95</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>96</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>97</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>98</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>99</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>100</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>101</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>102</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>103</v>
-      </c>
-      <c r="P7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1248,259 +1293,259 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>151</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>152</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>153</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>154</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>155</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>156</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>157</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>158</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>159</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>160</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>161</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>162</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>163</v>
-      </c>
-      <c r="P8" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" t="s">
-        <v>105</v>
-      </c>
-      <c r="F9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
       <c r="H9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>100026</v>
@@ -1550,307 +1595,307 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>21</v>
-      </c>
       <c r="H15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>111</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>113</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>114</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>115</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
         <v>116</v>
       </c>
-      <c r="K16" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
+        <v>109</v>
+      </c>
+      <c r="O16" t="s">
         <v>117</v>
       </c>
-      <c r="N16" t="s">
-        <v>110</v>
-      </c>
-      <c r="O16" t="s">
-        <v>118</v>
-      </c>
       <c r="P16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
       <c r="H17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1900,107 +1945,107 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -2050,305 +2095,306 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G25" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L25" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" t="s">
         <v>147</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" t="s">
         <v>148</v>
       </c>
-      <c r="N25" t="s">
-        <v>57</v>
-      </c>
-      <c r="O25" t="s">
-        <v>149</v>
-      </c>
       <c r="P25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/files/inv 2/wordvariables.xlsx
+++ b/files/inv 2/wordvariables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\htv\source\repos\peppolgenerator\files\inv 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF1B93-9B1E-4B66-AD65-04CA22DDBA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272C02FB-8D17-45C8-BBF5-2031878BDB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-67320" yWindow="-9900" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="228">
   <si>
     <t>KEY</t>
   </si>
@@ -87,9 +87,6 @@
     <t>CONTACTLABEL</t>
   </si>
   <si>
-    <t>Kontakt</t>
-  </si>
-  <si>
     <t>CONTACT</t>
   </si>
   <si>
@@ -522,9 +519,6 @@
     <t>Dato sendt</t>
   </si>
   <si>
-    <t>Faktura nummer</t>
-  </si>
-  <si>
     <t>ANTAL LEVERET</t>
   </si>
   <si>
@@ -586,13 +580,142 @@
   </si>
   <si>
     <t>FØLGESEDDEL: DN22-126821</t>
+  </si>
+  <si>
+    <t>Rechnungsnr.</t>
+  </si>
+  <si>
+    <t>Factuurnr.</t>
+  </si>
+  <si>
+    <t>Nº Factura</t>
+  </si>
+  <si>
+    <t>Laskun nro</t>
+  </si>
+  <si>
+    <t>Nr. Facture</t>
+  </si>
+  <si>
+    <t>Faktura nr.</t>
+  </si>
+  <si>
+    <t>Fakturanr.</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>z.Hd.</t>
+  </si>
+  <si>
+    <t>T.a.v</t>
+  </si>
+  <si>
+    <t>Contacto</t>
+  </si>
+  <si>
+    <t>Huomio</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>BEMERKUNGEN</t>
+  </si>
+  <si>
+    <t>OPMERKINGEN</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>HUOMAUTUKSET</t>
+  </si>
+  <si>
+    <t>COMMENTAIRES</t>
+  </si>
+  <si>
+    <t>BEZEICHNUNG</t>
+  </si>
+  <si>
+    <t>OMSCHRIJVING</t>
+  </si>
+  <si>
+    <t>DESCRIPCIÓN</t>
+  </si>
+  <si>
+    <t>KUVAUS</t>
+  </si>
+  <si>
+    <t>DESCRIPTIFS</t>
+  </si>
+  <si>
+    <t>BESKRIVNING</t>
+  </si>
+  <si>
+    <t>GELIEFERTE MENGE</t>
+  </si>
+  <si>
+    <t>GELEVERDE HOEVEELHEID</t>
+  </si>
+  <si>
+    <t>CANTIDAD ENTREGADA</t>
+  </si>
+  <si>
+    <t>TOIMITETTU MÄÄRÄ</t>
+  </si>
+  <si>
+    <t>QUANTITÉ LIVRÉE</t>
+  </si>
+  <si>
+    <t>LEVERT ANTALL</t>
+  </si>
+  <si>
+    <t>LEVERERAD KVANTITET</t>
+  </si>
+  <si>
+    <t>Naam</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Nimi</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Namn</t>
+  </si>
+  <si>
+    <t>Till</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Aan</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Vaille</t>
+  </si>
+  <si>
+    <t>Pour</t>
+  </si>
+  <si>
+    <t>To</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +741,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -639,13 +768,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -943,49 +1074,49 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
@@ -993,49 +1124,49 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
         <v>173</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>174</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>175</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I2" t="s">
         <v>176</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
         <v>177</v>
       </c>
-      <c r="G2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>178</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>179</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>180</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>181</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>182</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>183</v>
-      </c>
-      <c r="O2" t="s">
-        <v>184</v>
-      </c>
-      <c r="P2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
@@ -1043,49 +1174,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
       <c r="J3" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
       <c r="M3" t="s">
         <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="P3" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
@@ -1093,49 +1224,49 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>73</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>74</v>
-      </c>
-      <c r="P4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
@@ -1143,49 +1274,49 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
@@ -1193,49 +1324,49 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>76</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>78</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
         <v>79</v>
       </c>
-      <c r="F6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>80</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
-        <v>78</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>86</v>
       </c>
-      <c r="O6" t="s">
-        <v>87</v>
-      </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
@@ -1243,49 +1374,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>90</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>91</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>92</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>94</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>95</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>96</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>98</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>99</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>100</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>102</v>
-      </c>
-      <c r="P7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
@@ -1293,49 +1424,49 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" t="s">
         <v>149</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>151</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>152</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>153</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>154</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>155</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>156</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>157</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>158</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>159</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>160</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>161</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>162</v>
-      </c>
-      <c r="P8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
@@ -1343,49 +1474,49 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
@@ -1398,49 +1529,49 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
@@ -1498,49 +1629,49 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>187</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="J13" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="M13" t="s">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -1597,305 +1728,305 @@
       <c r="A15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>107</v>
+      <c r="B15" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" t="s">
-        <v>107</v>
-      </c>
-      <c r="F15" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="J15" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
-      </c>
-      <c r="L15" t="s">
-        <v>107</v>
+        <v>106</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="N15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O15" t="s">
-        <v>107</v>
+        <v>192</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" t="s">
         <v>108</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>109</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>110</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
         <v>111</v>
       </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>112</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>113</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>114</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" t="s">
         <v>115</v>
       </c>
-      <c r="K16" t="s">
-        <v>109</v>
-      </c>
-      <c r="L16" t="s">
-        <v>110</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
+        <v>108</v>
+      </c>
+      <c r="O16" t="s">
         <v>116</v>
       </c>
-      <c r="N16" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" t="s">
-        <v>117</v>
-      </c>
       <c r="P16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>213</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O18" t="s">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O19" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="P19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="N20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O20" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -1945,107 +2076,107 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -2095,302 +2226,302 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L25" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" t="s">
         <v>146</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" t="s">
         <v>147</v>
       </c>
-      <c r="N25" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" t="s">
-        <v>148</v>
-      </c>
       <c r="P25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="E30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>217</v>
       </c>
       <c r="I30" t="s">
-        <v>60</v>
+        <v>218</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="K30" t="s">
-        <v>60</v>
-      </c>
-      <c r="L30" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="M30" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="N30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="P30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
